--- a/data/trans_bre/CONS_COL-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COL-Estudios-trans_bre.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,81 +54,11 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -133,11 +66,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,57 +468,57 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género absoluta</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>C. Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
@@ -592,327 +528,335 @@
       <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Hasta primaria</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>45,95%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>31,75%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-4,31%</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>7.891300107163551</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>11.08939913416565</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>-1.649768042802841</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3756282164899731</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3684120596756885</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.06454945628105167</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,15; 14,34</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 15,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,92; 3,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>12,91; 86,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10,0; 56,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-25,03; 15,66</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.320929015503976</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>4.355701107317214</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>-7.591934609527408</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.05288381840683008</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.1291765516131046</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2596157079670666</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.93955788717088</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>17.4147220948174</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.088559923249901</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.8205093900129125</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.6619388290807293</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.1881463802049897</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Secundaria</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,04</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-8,44%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-19,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 1,17</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 3,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,9; -0,88</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-25,64; 13,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,65; 26,34</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-29,58; -5,88</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>-1.029120860484908</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.6845509882337703</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>-3.503969338940671</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.101293751461929</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.0524728794787058</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.2177307950929436</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>-3.391833213169717</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-2.076350687106137</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>-5.786604997942995</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2926054397711015</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.1460457039169101</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3346368388328035</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1.167009230081862</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>3.219800381881517</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>-1.384726256173912</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.13671147494955</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2725209974281281</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.0914948075239131</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Estudios universitarios</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,29</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,98</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>26,88%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-36,23%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-33,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 5,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; -1,03</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,52; -0,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,41; 81,58</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-53,07; -9,33</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-53,82; -8,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>2.161342732517145</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-4.055125076951049</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>-3.390553669742658</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.2366384395634546</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.3564281664737584</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.3561357969172912</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>-1.38171620682201</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-7.912422382544965</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>-6.217628666490461</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1310656638770068</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.5679950615689746</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.5582057906045962</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>5.56390626116973</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>-0.9435106956960485</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>-1.004226243670554</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.7371271017455088</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.08431248565970689</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.1212720860720344</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,67</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>23,3%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,9%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-17,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 4,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 3,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; -1,11</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,29; 43,69</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; 21,42</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-26,51; -7,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>2.270869999101346</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>1.573673294458999</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>-3.105002715414631</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2043506927949685</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.1045877392949052</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1996505090263026</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>0.2257475903113701</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-0.5727421826687501</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>-4.678807111416782</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.01536533474818934</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.03852130516243542</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2832539443894977</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>3.937746508223591</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>3.848266909391428</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>-1.416363953330754</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.386905573495732</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.266711166331406</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.09679919513860495</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -921,12 +865,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
